--- a/Excel data_ans/COUNT 3_ans.xlsx
+++ b/Excel data_ans/COUNT 3_ans.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DA_TOPS\TOPS-ASSIGNMENTS-main\TOPS-ASSIGNMENTS-main\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Excel_data\Excel data_ans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73C721F4-18B9-42DC-94BB-9E978FBF3347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65257C97-A6E9-4629-8C40-A44D34F9D7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E4B56F38-D64E-4259-B219-6B5B05364F51}"/>
   </bookViews>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184D8B87-3A81-492A-ADEF-EEF98CC70539}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,8 +738,8 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="6">
-        <f>COUNTA(B3:B13) - COUNT(B3:B13)</f>
-        <v>5</v>
+        <f>COUNTA(B3:B13) - COUNT(B3:B13) + COUNTBLANK(B3:B13)</f>
+        <v>9</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
